--- a/Beta/Historical Beta/Beta_1295.KL.xlsx
+++ b/Beta/Historical Beta/Beta_1295.KL.xlsx
@@ -90,10 +90,10 @@
     <t xml:space="preserve">Least Squares   </t>
   </si>
   <si>
-    <t>Sat</t>
+    <t>Tue</t>
   </si>
   <si>
-    <t xml:space="preserve">12:22:46        </t>
+    <t xml:space="preserve">00:55:10        </t>
   </si>
   <si>
     <t xml:space="preserve">  1827          </t>
@@ -138,7 +138,7 @@
     <t xml:space="preserve">  F-statistic:       </t>
   </si>
   <si>
-    <t xml:space="preserve"> 14 Aug 2021</t>
+    <t xml:space="preserve"> 17 Aug 2021</t>
   </si>
   <si>
     <t xml:space="preserve">  Log-Likelihood:    </t>
